--- a/FAO-dsd/DSD_FI_TRADE.xlsx
+++ b/FAO-dsd/DSD_FI_TRADE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\Manuals\2021\NFIS\Refdata\DSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egger\Documents\FIAS\SWS\Commodities Data\Trade\2022 data\Dissemination\Query Panel\FI_Trade_2024.1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81B6981-A337-4874-AED6-82E0FF2615D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="6390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Order</t>
   </si>
@@ -101,21 +102,9 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>STAUS</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
-    <t>CL_FI_SYMBOL</t>
-  </si>
-  <si>
-    <t>SYMBOL</t>
-  </si>
-  <si>
-    <t>FAO statistical symbol</t>
-  </si>
-  <si>
     <t>COUNTRY_REPORTER.UN_CODE</t>
   </si>
   <si>
@@ -159,12 +148,21 @@
   </si>
   <si>
     <t>CL_FI_COUNTRY_GROUPS</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CL_FI_SYMBOL_SDMX</t>
+  </si>
+  <si>
+    <t>FAO SDMX statistical symbol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -222,23 +220,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,11 +509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,28 +528,24 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+        <v>36</v>
+      </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -566,161 +553,154 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+        <v>37</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -728,135 +708,132 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
